--- a/data/processed/X_test_sin_outliers_norm.xlsx
+++ b/data/processed/X_test_sin_outliers_norm.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>charges</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,7 +473,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3442550881212917</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D2" t="n">
         <v>-1.024601595313405</v>
@@ -493,7 +493,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.723323921478717</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D3" t="n">
         <v>-1.024601595313405</v>
@@ -513,7 +513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C4" t="n">
-        <v>1.662289629887488</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D4" t="n">
         <v>-1.024601595313405</v>
@@ -533,7 +533,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3237467881350339</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D5" t="n">
         <v>0.9759891108642286</v>
@@ -553,7 +553,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C6" t="n">
-        <v>2.10049766113929</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D6" t="n">
         <v>0.9759891108642286</v>
@@ -573,7 +573,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.79629566381066</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D7" t="n">
         <v>0.9759891108642286</v>
@@ -593,7 +593,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.036149976020063</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D8" t="n">
         <v>-1.024601595313405</v>
@@ -613,7 +613,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1629824024642967</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D9" t="n">
         <v>0.9759891108642286</v>
@@ -633,7 +633,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.8759820711328113</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D10" t="n">
         <v>-1.024601595313405</v>
@@ -653,7 +653,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2283027858068018</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D11" t="n">
         <v>0.9759891108642286</v>
@@ -673,7 +673,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5644397919315267</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D12" t="n">
         <v>0.9759891108642286</v>
@@ -693,7 +693,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5265409777802543</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D13" t="n">
         <v>0.9759891108642286</v>
@@ -713,7 +713,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.8546842089397031</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D14" t="n">
         <v>-1.024601595313405</v>
@@ -733,7 +733,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C15" t="n">
-        <v>2.173780952926234</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D15" t="n">
         <v>0.9759891108642286</v>
@@ -753,7 +753,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C16" t="n">
-        <v>2.173780952926234</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D16" t="n">
         <v>0.9759891108642286</v>
@@ -773,7 +773,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C17" t="n">
-        <v>2.173780952926234</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D17" t="n">
         <v>0.9759891108642286</v>
@@ -793,7 +793,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2742676771474632</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D18" t="n">
         <v>-1.024601595313405</v>
@@ -813,7 +813,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C19" t="n">
-        <v>2.173780952926234</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D19" t="n">
         <v>-1.024601595313405</v>
@@ -833,7 +833,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.4297260373735327</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D20" t="n">
         <v>-1.024601595313405</v>
@@ -853,7 +853,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9129892750350891</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D21" t="n">
         <v>-1.024601595313405</v>
@@ -873,7 +873,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.7423700931013396</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D22" t="n">
         <v>0.9759891108642286</v>
@@ -893,7 +893,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5082188450236199</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D23" t="n">
         <v>0.9759891108642286</v>
@@ -913,7 +913,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.121528619464179</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D24" t="n">
         <v>0.9759891108642286</v>
@@ -933,7 +933,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.9729189505958676</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D25" t="n">
         <v>-1.024601595313405</v>
@@ -953,7 +953,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1468800496148295</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D26" t="n">
         <v>-1.024601595313405</v>
@@ -973,7 +973,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1629092323243843</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D27" t="n">
         <v>-1.024601595313405</v>
@@ -993,7 +993,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007706864059830643</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D28" t="n">
         <v>-1.024601595313405</v>
@@ -1013,7 +1013,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6185338710631565</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D29" t="n">
         <v>-1.024601595313405</v>
@@ -1033,7 +1033,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.2827007532295056</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D30" t="n">
         <v>-1.024601595313405</v>
@@ -1053,7 +1053,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.133902734116521</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D31" t="n">
         <v>0.9759891108642286</v>
@@ -1073,7 +1073,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3234477335419501</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D32" t="n">
         <v>-1.024601595313405</v>
@@ -1093,7 +1093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.07181408393615489</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D33" t="n">
         <v>-1.024601595313405</v>
@@ -1113,7 +1113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.045747097852038</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D34" t="n">
         <v>-1.024601595313405</v>
@@ -1133,7 +1133,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.6815533172140503</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D35" t="n">
         <v>-1.024601595313405</v>
@@ -1153,7 +1153,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.9581378199534053</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D36" t="n">
         <v>0.9759891108642286</v>
@@ -1173,7 +1173,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.5075343650814169</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D37" t="n">
         <v>0.9759891108642286</v>
@@ -1193,7 +1193,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.9885106846875098</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D38" t="n">
         <v>-1.024601595313405</v>
@@ -1213,7 +1213,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.5185067433052818</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D39" t="n">
         <v>-1.024601595313405</v>
@@ -1233,7 +1233,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C40" t="n">
-        <v>1.122543048062484</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D40" t="n">
         <v>-1.024601595313405</v>
@@ -1253,7 +1253,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C41" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D41" t="n">
         <v>0.9759891108642286</v>
@@ -1273,7 +1273,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.7812695197010298</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D42" t="n">
         <v>-1.024601595313405</v>
@@ -1293,7 +1293,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.9840000551261125</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D43" t="n">
         <v>0.9759891108642286</v>
@@ -1313,7 +1313,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0885215194907487</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D44" t="n">
         <v>-1.024601595313405</v>
@@ -1333,7 +1333,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.04381508680710654</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D45" t="n">
         <v>0.9759891108642286</v>
@@ -1353,7 +1353,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.7612196054595357</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D46" t="n">
         <v>0.9759891108642286</v>
@@ -1373,7 +1373,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0231074503012723</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D47" t="n">
         <v>0.9759891108642286</v>
@@ -1393,7 +1393,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8911329951639635</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D48" t="n">
         <v>-1.024601595313405</v>
@@ -1413,7 +1413,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.8106345466074588</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D49" t="n">
         <v>-1.024601595313405</v>
@@ -1433,7 +1433,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C50" t="n">
-        <v>2.173780952926234</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D50" t="n">
         <v>0.9759891108642286</v>
@@ -1453,7 +1453,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8035395130707169</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D51" t="n">
         <v>0.9759891108642286</v>
@@ -1473,7 +1473,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1309215828946326</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D52" t="n">
         <v>-1.024601595313405</v>
@@ -1493,7 +1493,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.07560503717891</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D53" t="n">
         <v>0.9759891108642286</v>
@@ -1513,7 +1513,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C54" t="n">
-        <v>1.577584434111204</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D54" t="n">
         <v>-1.024601595313405</v>
@@ -1533,7 +1533,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.076647238072227</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D55" t="n">
         <v>0.9759891108642286</v>
@@ -1553,7 +1553,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.195602236118983</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D56" t="n">
         <v>0.9759891108642286</v>
@@ -1573,7 +1573,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C57" t="n">
-        <v>1.265892226873273</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D57" t="n">
         <v>0.9759891108642286</v>
@@ -1593,7 +1593,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.8846619008978694</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D58" t="n">
         <v>0.9759891108642286</v>
@@ -1613,7 +1613,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C59" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D59" t="n">
         <v>0.9759891108642286</v>
@@ -1633,7 +1633,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.07126700667771911</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D60" t="n">
         <v>-1.024601595313405</v>
@@ -1653,7 +1653,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.1985116390380495</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D61" t="n">
         <v>-1.024601595313405</v>
@@ -1673,7 +1673,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1303013521181559</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D62" t="n">
         <v>-1.024601595313405</v>
@@ -1693,7 +1693,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.7747410032698425</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D63" t="n">
         <v>-1.024601595313405</v>
@@ -1713,7 +1713,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C64" t="n">
-        <v>1.524490754995812</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D64" t="n">
         <v>0.9759891108642286</v>
@@ -1733,7 +1733,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.4511476829543012</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D65" t="n">
         <v>-1.024601595313405</v>
@@ -1753,7 +1753,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C66" t="n">
-        <v>1.039042777739125</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D66" t="n">
         <v>-1.024601595313405</v>
@@ -1773,7 +1773,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.8362182332133012</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D67" t="n">
         <v>-1.024601595313405</v>
@@ -1793,7 +1793,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5329959259797201</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D68" t="n">
         <v>0.9759891108642286</v>
@@ -1813,7 +1813,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C69" t="n">
-        <v>1.331285492798655</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D69" t="n">
         <v>0.9759891108642286</v>
@@ -1833,7 +1833,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.8897108620175451</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D70" t="n">
         <v>-1.024601595313405</v>
@@ -1853,7 +1853,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C71" t="n">
-        <v>-1.079257933684723</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D71" t="n">
         <v>0.9759891108642286</v>
@@ -1873,7 +1873,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.6432545873439999</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D72" t="n">
         <v>0.9759891108642286</v>
@@ -1893,7 +1893,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.3129275588215238</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D73" t="n">
         <v>-1.024601595313405</v>
@@ -1913,7 +1913,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.4247103287543991</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D74" t="n">
         <v>-1.024601595313405</v>
@@ -1933,7 +1933,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.6176318574338829</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D75" t="n">
         <v>0.9759891108642286</v>
@@ -1953,7 +1953,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.5368584944364858</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D76" t="n">
         <v>0.9759891108642286</v>
@@ -1973,7 +1973,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.7613150644792822</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D77" t="n">
         <v>-1.024601595313405</v>
@@ -1993,7 +1993,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.7654912503357331</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D78" t="n">
         <v>0.9759891108642286</v>
@@ -2013,7 +2013,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.1103469496848553</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D79" t="n">
         <v>-1.024601595313405</v>
@@ -2033,7 +2033,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.8148180056737346</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D80" t="n">
         <v>-1.024601595313405</v>
@@ -2053,7 +2053,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.3435877822750895</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D81" t="n">
         <v>-1.024601595313405</v>
@@ -2073,7 +2073,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.108119567212584</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D82" t="n">
         <v>0.9759891108642286</v>
@@ -2093,7 +2093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C83" t="n">
-        <v>1.540360479397041</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D83" t="n">
         <v>0.9759891108642286</v>
@@ -2113,7 +2113,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.7352269780452509</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D84" t="n">
         <v>-1.024601595313405</v>
@@ -2133,7 +2133,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C85" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D85" t="n">
         <v>-1.024601595313405</v>
@@ -2153,7 +2153,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C86" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D86" t="n">
         <v>0.9759891108642286</v>
@@ -2173,7 +2173,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C87" t="n">
-        <v>2.173780952926234</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D87" t="n">
         <v>0.9759891108642286</v>
@@ -2193,7 +2193,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.7664171691136905</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D88" t="n">
         <v>0.9759891108642286</v>
@@ -2213,7 +2213,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.1948678204103477</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D89" t="n">
         <v>0.9759891108642286</v>
@@ -2233,7 +2233,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.4220173620827116</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D90" t="n">
         <v>-1.024601595313405</v>
@@ -2253,7 +2253,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.1291353809625865</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D91" t="n">
         <v>0.9759891108642286</v>
@@ -2273,7 +2273,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2641021410901598</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D92" t="n">
         <v>-1.024601595313405</v>
@@ -2293,7 +2293,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C93" t="n">
-        <v>1.434914410479597</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D93" t="n">
         <v>-1.024601595313405</v>
@@ -2313,7 +2313,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C94" t="n">
-        <v>1.074317061053151</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D94" t="n">
         <v>-1.024601595313405</v>
@@ -2333,7 +2333,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.7472116066099094</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D95" t="n">
         <v>0.9759891108642286</v>
@@ -2353,7 +2353,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C96" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D96" t="n">
         <v>0.9759891108642286</v>
@@ -2373,7 +2373,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.5642964330857582</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D97" t="n">
         <v>0.9759891108642286</v>
@@ -2393,7 +2393,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7092573519840909</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D98" t="n">
         <v>0.9759891108642286</v>
@@ -2413,7 +2413,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.059676985303716</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D99" t="n">
         <v>-1.024601595313405</v>
@@ -2433,7 +2433,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6146789260774571</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D100" t="n">
         <v>-1.024601595313405</v>
@@ -2453,7 +2453,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.6112643778999839</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D101" t="n">
         <v>-1.024601595313405</v>
@@ -2473,7 +2473,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.7971956231294196</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D102" t="n">
         <v>-1.024601595313405</v>
@@ -2493,7 +2493,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C103" t="n">
-        <v>-1.073247297557194</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D103" t="n">
         <v>-1.024601595313405</v>
@@ -2513,7 +2513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.6799931814803961</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D104" t="n">
         <v>0.9759891108642286</v>
@@ -2533,7 +2533,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.02016058564162181</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D105" t="n">
         <v>0.9759891108642286</v>
@@ -2553,7 +2553,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C106" t="n">
-        <v>0.05579973199363651</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D106" t="n">
         <v>0.9759891108642286</v>
@@ -2573,7 +2573,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C107" t="n">
-        <v>-1.074801493750719</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D107" t="n">
         <v>0.9759891108642286</v>
@@ -2593,7 +2593,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.4794704693043741</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D108" t="n">
         <v>0.9759891108642286</v>
@@ -2613,7 +2613,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8556261929967939</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D109" t="n">
         <v>0.9759891108642286</v>
@@ -2633,7 +2633,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C110" t="n">
-        <v>-1.077288832353227</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D110" t="n">
         <v>0.9759891108642286</v>
@@ -2653,7 +2653,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C111" t="n">
-        <v>1.05879735504081</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D111" t="n">
         <v>-1.024601595313405</v>
@@ -2673,7 +2673,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C112" t="n">
-        <v>1.042750198033437</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D112" t="n">
         <v>0.9759891108642286</v>
@@ -2693,7 +2693,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.9558595055678141</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D113" t="n">
         <v>0.9759891108642286</v>
@@ -2713,7 +2713,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C114" t="n">
-        <v>0.04484852887485819</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D114" t="n">
         <v>-1.024601595313405</v>
@@ -2733,7 +2733,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C115" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D115" t="n">
         <v>-1.024601595313405</v>
@@ -2753,7 +2753,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.2765027885675371</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D116" t="n">
         <v>-1.024601595313405</v>
@@ -2773,7 +2773,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.04976122548794</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D117" t="n">
         <v>0.9759891108642286</v>
@@ -2793,7 +2793,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C118" t="n">
-        <v>1.754408269121838</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D118" t="n">
         <v>0.9759891108642286</v>
@@ -2813,7 +2813,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9828237750767984</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D119" t="n">
         <v>-1.024601595313405</v>
@@ -2833,7 +2833,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.6200430330852459</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D120" t="n">
         <v>-1.024601595313405</v>
@@ -2853,7 +2853,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.9695439779640511</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D121" t="n">
         <v>0.9759891108642286</v>
@@ -2873,7 +2873,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.6913287690284329</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D122" t="n">
         <v>-1.024601595313405</v>
@@ -2893,7 +2893,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.5260434148684585</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D123" t="n">
         <v>0.9759891108642286</v>
@@ -2913,7 +2913,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.1160109605965041</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D124" t="n">
         <v>-1.024601595313405</v>
@@ -2933,7 +2933,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.049080667228744</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D125" t="n">
         <v>0.9759891108642286</v>
@@ -2953,7 +2953,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.7781024706367902</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D126" t="n">
         <v>-1.024601595313405</v>
@@ -2973,7 +2973,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.4777124744993558</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D127" t="n">
         <v>-1.024601595313405</v>
@@ -2993,7 +2993,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.5177156044926203</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D128" t="n">
         <v>-1.024601595313405</v>
@@ -3013,7 +3013,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.3251217916750479</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D129" t="n">
         <v>0.9759891108642286</v>
@@ -3033,7 +3033,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.03196192634396545</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D130" t="n">
         <v>-1.024601595313405</v>
@@ -3053,7 +3053,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C131" t="n">
-        <v>-1.06391975052945</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D131" t="n">
         <v>0.9759891108642286</v>
@@ -3073,7 +3073,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.8521545399585416</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D132" t="n">
         <v>-1.024601595313405</v>
@@ -3093,7 +3093,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.6576613633482574</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D133" t="n">
         <v>0.9759891108642286</v>
@@ -3113,7 +3113,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.6673648664094166</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D134" t="n">
         <v>-1.024601595313405</v>
@@ -3133,7 +3133,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.4592557997556611</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D135" t="n">
         <v>-1.024601595313405</v>
@@ -3153,7 +3153,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.6858880411963159</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D136" t="n">
         <v>-1.024601595313405</v>
@@ -3173,7 +3173,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.02178429131145509</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D137" t="n">
         <v>0.9759891108642286</v>
@@ -3193,7 +3193,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.0160621938788056</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D138" t="n">
         <v>0.9759891108642286</v>
@@ -3213,7 +3213,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9496488157763538</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D139" t="n">
         <v>0.9759891108642286</v>
@@ -3233,7 +3233,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C140" t="n">
-        <v>2.173780952926234</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D140" t="n">
         <v>-1.024601595313405</v>
@@ -3253,7 +3253,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C141" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D141" t="n">
         <v>-1.024601595313405</v>
@@ -3273,7 +3273,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.7237560155863293</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D142" t="n">
         <v>-1.024601595313405</v>
@@ -3293,7 +3293,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.2677811192539364</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D143" t="n">
         <v>-1.024601595313405</v>
@@ -3313,7 +3313,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.015794611755324</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D144" t="n">
         <v>0.9759891108642286</v>
@@ -3333,7 +3333,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C145" t="n">
-        <v>2.072900127344206</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D145" t="n">
         <v>-1.024601595313405</v>
@@ -3353,7 +3353,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C146" t="n">
-        <v>-1.034135614202887</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D146" t="n">
         <v>0.9759891108642286</v>
@@ -3373,7 +3373,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C147" t="n">
-        <v>1.064921010998719</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D147" t="n">
         <v>0.9759891108642286</v>
@@ -3393,7 +3393,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.7243855374297534</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D148" t="n">
         <v>0.9759891108642286</v>
@@ -3413,7 +3413,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.8731395301821829</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D149" t="n">
         <v>-1.024601595313405</v>
@@ -3433,7 +3433,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.1120607251589754</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D150" t="n">
         <v>-1.024601595313405</v>
@@ -3453,7 +3453,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.7749955209927939</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D151" t="n">
         <v>0.9759891108642286</v>
@@ -3473,7 +3473,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C152" t="n">
-        <v>2.173780952926234</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D152" t="n">
         <v>-1.024601595313405</v>
@@ -3493,7 +3493,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.979354987693133</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D153" t="n">
         <v>-1.024601595313405</v>
@@ -3513,7 +3513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C154" t="n">
-        <v>-1.132386614440689</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D154" t="n">
         <v>0.9759891108642286</v>
@@ -3533,7 +3533,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C155" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D155" t="n">
         <v>0.9759891108642286</v>
@@ -3553,7 +3553,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.6141135723254489</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D156" t="n">
         <v>-1.024601595313405</v>
@@ -3573,7 +3573,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.7980242534299445</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D157" t="n">
         <v>0.9759891108642286</v>
@@ -3593,7 +3593,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C158" t="n">
-        <v>0.09798151802846386</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D158" t="n">
         <v>0.9759891108642286</v>
@@ -3613,7 +3613,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.3985316717702106</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D159" t="n">
         <v>-1.024601595313405</v>
@@ -3633,7 +3633,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C160" t="n">
-        <v>2.168873181071106</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D160" t="n">
         <v>-1.024601595313405</v>
@@ -3653,7 +3653,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C161" t="n">
-        <v>2.173780952926234</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D161" t="n">
         <v>0.9759891108642286</v>
@@ -3673,7 +3673,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1031737916247569</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D162" t="n">
         <v>-1.024601595313405</v>
@@ -3693,7 +3693,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.9773009628366945</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D163" t="n">
         <v>-1.024601595313405</v>
@@ -3713,7 +3713,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C164" t="n">
-        <v>0.2401167063987037</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D164" t="n">
         <v>0.9759891108642286</v>
@@ -3733,7 +3733,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C165" t="n">
-        <v>-1.008509096472521</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D165" t="n">
         <v>0.9759891108642286</v>
@@ -3753,7 +3753,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.889977680240548</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D166" t="n">
         <v>0.9759891108642286</v>
@@ -3773,7 +3773,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.5359322831436139</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D167" t="n">
         <v>0.9759891108642286</v>
@@ -3793,7 +3793,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C168" t="n">
-        <v>2.173780952926234</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D168" t="n">
         <v>-1.024601595313405</v>
@@ -3813,7 +3813,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C169" t="n">
-        <v>2.173780952926234</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D169" t="n">
         <v>-1.024601595313405</v>
@@ -3833,7 +3833,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C170" t="n">
-        <v>2.173780952926234</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D170" t="n">
         <v>0.9759891108642286</v>
@@ -3853,7 +3853,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.9850190481835808</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D171" t="n">
         <v>-1.024601595313405</v>
@@ -3873,7 +3873,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.3356182877959542</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D172" t="n">
         <v>-1.024601595313405</v>
@@ -3893,7 +3893,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.6275255645998284</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D173" t="n">
         <v>-1.024601595313405</v>
@@ -3913,7 +3913,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.6752089215690025</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D174" t="n">
         <v>0.9759891108642286</v>
@@ -3933,7 +3933,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.8256826392514414</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D175" t="n">
         <v>0.9759891108642286</v>
@@ -3953,7 +3953,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C176" t="n">
-        <v>-1.032478948547426</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D176" t="n">
         <v>-1.024601595313405</v>
@@ -3973,7 +3973,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9332526012172179</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D177" t="n">
         <v>0.9759891108642286</v>
@@ -3993,7 +3993,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C178" t="n">
-        <v>0.3699550536328456</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D178" t="n">
         <v>0.9759891108642286</v>
@@ -4013,7 +4013,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C179" t="n">
-        <v>0.1253599522030818</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D179" t="n">
         <v>0.9759891108642286</v>
@@ -4033,7 +4033,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C180" t="n">
-        <v>1.999743080284403</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D180" t="n">
         <v>-1.024601595313405</v>
@@ -4053,7 +4053,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.07300561617229752</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D181" t="n">
         <v>-1.024601595313405</v>
@@ -4073,7 +4073,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C182" t="n">
-        <v>1.681345980037561</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D182" t="n">
         <v>-1.024601595313405</v>
@@ -4093,7 +4093,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.9320228965154327</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D183" t="n">
         <v>-1.024601595313405</v>
@@ -4113,7 +4113,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.410393101977038</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D184" t="n">
         <v>0.9759891108642286</v>
@@ -4133,7 +4133,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.7490756256767579</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D185" t="n">
         <v>-1.024601595313405</v>
@@ -4153,7 +4153,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.7295308846927183</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D186" t="n">
         <v>0.9759891108642286</v>
@@ -4173,7 +4173,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.9629618817246993</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D187" t="n">
         <v>-1.024601595313405</v>
@@ -4193,7 +4193,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7645984777247676</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D188" t="n">
         <v>0.9759891108642286</v>
@@ -4213,7 +4213,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.8936739780270748</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D189" t="n">
         <v>-1.024601595313405</v>
@@ -4233,7 +4233,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.396333298240254</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D190" t="n">
         <v>-1.024601595313405</v>
@@ -4253,7 +4253,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.1955748834955312</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D191" t="n">
         <v>0.9759891108642286</v>
@@ -4273,7 +4273,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.8893712323702152</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D192" t="n">
         <v>0.9759891108642286</v>
@@ -4293,7 +4293,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.5198962566757916</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D193" t="n">
         <v>-1.024601595313405</v>
@@ -4313,7 +4313,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.9752103587422957</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D194" t="n">
         <v>-1.024601595313405</v>
@@ -4333,7 +4333,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C195" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D195" t="n">
         <v>0.9759891108642286</v>
@@ -4353,7 +4353,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C196" t="n">
-        <v>0.04109884959536316</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D196" t="n">
         <v>0.9759891108642286</v>
@@ -4373,7 +4373,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.3255645006035429</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D197" t="n">
         <v>-1.024601595313405</v>
@@ -4393,7 +4393,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.9774711817275721</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D198" t="n">
         <v>-1.024601595313405</v>
@@ -4413,7 +4413,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.04662533212801508</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D199" t="n">
         <v>-1.024601595313405</v>
@@ -4433,7 +4433,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C200" t="n">
-        <v>-1.02813298505141</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D200" t="n">
         <v>-1.024601595313405</v>
@@ -4453,7 +4453,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.3604162148888351</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D201" t="n">
         <v>-1.024601595313405</v>
@@ -4473,7 +4473,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.9311471514821431</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D202" t="n">
         <v>-1.024601595313405</v>
@@ -4493,7 +4493,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C203" t="n">
-        <v>1.172712796679103</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D203" t="n">
         <v>0.9759891108642286</v>
@@ -4513,7 +4513,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.8230774568014029</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D204" t="n">
         <v>0.9759891108642286</v>
@@ -4533,7 +4533,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C205" t="n">
-        <v>0.9843170528083192</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D205" t="n">
         <v>0.9759891108642286</v>
@@ -4553,7 +4553,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C206" t="n">
-        <v>0.4480338882263841</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D206" t="n">
         <v>-1.024601595313405</v>
@@ -4573,7 +4573,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C207" t="n">
-        <v>0.3977125871367403</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D207" t="n">
         <v>-1.024601595313405</v>
@@ -4593,7 +4593,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.3708152787537917</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D208" t="n">
         <v>0.9759891108642286</v>
@@ -4613,7 +4613,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.8200922776458244</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D209" t="n">
         <v>-1.024601595313405</v>
@@ -4633,7 +4633,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.4722584000545267</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D210" t="n">
         <v>0.9759891108642286</v>
@@ -4653,7 +4653,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.9279245989523347</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D211" t="n">
         <v>-1.024601595313405</v>
@@ -4673,7 +4673,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C212" t="n">
-        <v>0.03869648905447651</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D212" t="n">
         <v>0.9759891108642286</v>
@@ -4693,7 +4693,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C213" t="n">
-        <v>0.9544485502225158</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D213" t="n">
         <v>-1.024601595313405</v>
@@ -4713,7 +4713,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.3107539945226262</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D214" t="n">
         <v>-1.024601595313405</v>
@@ -4733,7 +4733,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C215" t="n">
-        <v>0.4438765869345025</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D215" t="n">
         <v>0.9759891108642286</v>
@@ -4753,7 +4753,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.5923037644109318</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D216" t="n">
         <v>0.9759891108642286</v>
@@ -4773,7 +4773,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.835833397616971</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D217" t="n">
         <v>-1.024601595313405</v>
@@ -4793,7 +4793,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.7721663266548774</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D218" t="n">
         <v>-1.024601595313405</v>
@@ -4813,7 +4813,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C219" t="n">
-        <v>0.1422337494179847</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D219" t="n">
         <v>-1.024601595313405</v>
@@ -4833,7 +4833,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C220" t="n">
-        <v>0.006250010880417361</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D220" t="n">
         <v>-1.024601595313405</v>
@@ -4853,7 +4853,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.7259961096757107</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D221" t="n">
         <v>-1.024601595313405</v>
@@ -4873,7 +4873,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C222" t="n">
-        <v>-1.007652583055394</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D222" t="n">
         <v>-1.024601595313405</v>
@@ -4893,7 +4893,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.5570837292272826</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D223" t="n">
         <v>0.9759891108642286</v>
@@ -4913,7 +4913,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.6079592221330301</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D224" t="n">
         <v>0.9759891108642286</v>
@@ -4933,7 +4933,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C225" t="n">
-        <v>2.173780952926234</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D225" t="n">
         <v>0.9759891108642286</v>
@@ -4953,7 +4953,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C226" t="n">
-        <v>-1.042299130354338</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D226" t="n">
         <v>0.9759891108642286</v>
@@ -4973,7 +4973,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C227" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D227" t="n">
         <v>0.9759891108642286</v>
@@ -4993,7 +4993,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C228" t="n">
-        <v>-1.07439127876714</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D228" t="n">
         <v>-1.024601595313405</v>
@@ -5013,7 +5013,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C229" t="n">
-        <v>-1.083525071848084</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D229" t="n">
         <v>0.9759891108642286</v>
@@ -5033,7 +5033,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.3162097050678251</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D230" t="n">
         <v>0.9759891108642286</v>
@@ -5053,7 +5053,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.1576267996819662</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D231" t="n">
         <v>-1.024601595313405</v>
@@ -5073,7 +5073,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C232" t="n">
-        <v>-1.093962261809532</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D232" t="n">
         <v>0.9759891108642286</v>
@@ -5093,7 +5093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.2897992969452222</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D233" t="n">
         <v>-1.024601595313405</v>
@@ -5113,7 +5113,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.7969681506413658</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D234" t="n">
         <v>-1.024601595313405</v>
@@ -5133,7 +5133,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C235" t="n">
-        <v>2.173780952926234</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D235" t="n">
         <v>0.9759891108642286</v>
@@ -5153,7 +5153,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.2554129143944445</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D236" t="n">
         <v>-1.024601595313405</v>
@@ -5173,7 +5173,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.4403669367046361</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D237" t="n">
         <v>0.9759891108642286</v>
@@ -5193,7 +5193,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.8616360341153054</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D238" t="n">
         <v>0.9759891108642286</v>
@@ -5213,7 +5213,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.6531644472826853</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D239" t="n">
         <v>0.9759891108642286</v>
@@ -5233,7 +5233,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C240" t="n">
-        <v>2.173780952926234</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D240" t="n">
         <v>-1.024601595313405</v>
@@ -5253,7 +5253,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C241" t="n">
-        <v>-1.08004769420677</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D241" t="n">
         <v>0.9759891108642286</v>
@@ -5273,7 +5273,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C242" t="n">
-        <v>0.06320503957077372</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D242" t="n">
         <v>-1.024601595313405</v>
@@ -5293,7 +5293,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C243" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D243" t="n">
         <v>0.9759891108642286</v>
@@ -5313,7 +5313,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.9464648734670361</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D244" t="n">
         <v>-1.024601595313405</v>
@@ -5333,7 +5333,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.909660780779177</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D245" t="n">
         <v>-1.024601595313405</v>
@@ -5353,7 +5353,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C246" t="n">
-        <v>-1.084271416215778</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D246" t="n">
         <v>0.9759891108642286</v>
@@ -5373,7 +5373,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.9784174972234706</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D247" t="n">
         <v>0.9759891108642286</v>
@@ -5393,7 +5393,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C248" t="n">
-        <v>0.7546691947957551</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D248" t="n">
         <v>-1.024601595313405</v>
@@ -5413,7 +5413,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.841884559454867</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D249" t="n">
         <v>0.9759891108642286</v>
@@ -5433,7 +5433,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C250" t="n">
-        <v>0.002545264866527632</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D250" t="n">
         <v>-1.024601595313405</v>
@@ -5453,7 +5453,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C251" t="n">
-        <v>-1.085332010843553</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D251" t="n">
         <v>0.9759891108642286</v>
@@ -5473,7 +5473,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C252" t="n">
-        <v>-1.060145604112609</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D252" t="n">
         <v>-1.024601595313405</v>
@@ -5493,7 +5493,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.5324761648913449</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D253" t="n">
         <v>0.9759891108642286</v>
@@ -5513,7 +5513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.9326180255459359</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D254" t="n">
         <v>-1.024601595313405</v>
@@ -5533,7 +5533,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.05330503414911331</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D255" t="n">
         <v>-1.024601595313405</v>
@@ -5553,7 +5553,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.9764629621431438</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D256" t="n">
         <v>-1.024601595313405</v>
@@ -5573,7 +5573,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5603689154106233</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D257" t="n">
         <v>-1.024601595313405</v>
@@ -5593,7 +5593,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.04163574162023641</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D258" t="n">
         <v>0.9759891108642286</v>
@@ -5613,7 +5613,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.9196208590834495</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D259" t="n">
         <v>0.9759891108642286</v>
@@ -5633,7 +5633,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.3845338365743954</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D260" t="n">
         <v>0.9759891108642286</v>
@@ -5653,7 +5653,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.6399269029707447</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D261" t="n">
         <v>-1.024601595313405</v>
@@ -5673,7 +5673,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.4469217893938939</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D262" t="n">
         <v>-1.024601595313405</v>
@@ -5693,7 +5693,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C263" t="n">
-        <v>0.08410274631863662</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D263" t="n">
         <v>-1.024601595313405</v>
@@ -5713,7 +5713,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C264" t="n">
-        <v>0.563178457704161</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D264" t="n">
         <v>0.9759891108642286</v>
@@ -5733,7 +5733,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C265" t="n">
-        <v>2.173780952926234</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D265" t="n">
         <v>0.9759891108642286</v>
@@ -5753,7 +5753,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.03410697291763279</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D266" t="n">
         <v>-1.024601595313405</v>
@@ -5773,7 +5773,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.6444984946234894</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D267" t="n">
         <v>0.9759891108642286</v>
@@ -5793,7 +5793,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C268" t="n">
-        <v>2.173780952926234</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D268" t="n">
         <v>-1.024601595313405</v>
@@ -5813,7 +5813,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.2671468923824798</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D269" t="n">
         <v>-1.024601595313405</v>
